--- a/0.WorkingSupport_Gen5/Daily_work/input/Book1.xlsx
+++ b/0.WorkingSupport_Gen5/Daily_work/input/Book1.xlsx
@@ -1669,7 +1669,11 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4754,8 +4758,16 @@
           <t>low</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -5135,7 +5147,11 @@
           <t>low</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>

--- a/0.WorkingSupport_Gen5/Daily_work/input/Book1.xlsx
+++ b/0.WorkingSupport_Gen5/Daily_work/input/Book1.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="System and Software Requirement" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="System and Software Requirement" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
